--- a/FileGunBasin/9 August-04 StormBasin/SDDX - Phone Number Providers - nimbata etc.xlsx
+++ b/FileGunBasin/9 August-04 StormBasin/SDDX - Phone Number Providers - nimbata etc.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kylecampbell/Documents/repos/localrepo-snefuru4/FileGunBasin/9 August-04 StormBasin/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9A0302C3-AB88-8844-8FFE-AF6D34E155E6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EEAD9C5C-2AB6-6040-883D-0B1E112084D1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="38400" windowHeight="19300" xr2:uid="{EFD5C193-6F6B-914F-8CBC-85A8AB3A09F8}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="10">
   <si>
     <t>nimbata</t>
   </si>
@@ -60,13 +60,19 @@
   </si>
   <si>
     <t>Jarkno944$</t>
+  </si>
+  <si>
+    <t>callrail</t>
+  </si>
+  <si>
+    <t>50 usd per month for 5 numbers - 3 usd per month for additional numbers</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -89,8 +95,15 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="0"/>
+      <name val="Aptos Narrow"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -100,6 +113,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="0" tint="-0.14996795556505021"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="1"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -117,11 +136,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -146,13 +166,13 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>423333</xdr:colOff>
-      <xdr:row>35</xdr:row>
+      <xdr:row>37</xdr:row>
       <xdr:rowOff>169333</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
       <xdr:colOff>320750</xdr:colOff>
-      <xdr:row>55</xdr:row>
+      <xdr:row>57</xdr:row>
       <xdr:rowOff>17007</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -178,6 +198,94 @@
         <a:xfrm>
           <a:off x="3522133" y="2607733"/>
           <a:ext cx="5129817" cy="3911674"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>63</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>50800</xdr:colOff>
+      <xdr:row>81</xdr:row>
+      <xdr:rowOff>7793</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Picture 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{644CEB60-0131-EBE6-1D58-6347FD283902}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3098800" y="12395200"/>
+          <a:ext cx="7772400" cy="3665393"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>406400</xdr:colOff>
+      <xdr:row>90</xdr:row>
+      <xdr:rowOff>126998</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>246111</xdr:colOff>
+      <xdr:row>108</xdr:row>
+      <xdr:rowOff>148165</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="Picture 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2EE1B784-EBA1-8547-1A12-DF4C142CB011}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3505200" y="18414998"/>
+          <a:ext cx="5072111" cy="3678767"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -506,11 +614,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F064B5AF-B61E-1647-A11A-79A718E9F358}">
-  <dimension ref="E1:E33"/>
+  <dimension ref="E1:E88"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A8" activePane="bottomLeft" state="frozenSplit"/>
-      <selection pane="bottomLeft" activeCell="E25" sqref="E25"/>
+      <pane ySplit="1" topLeftCell="A85" activePane="bottomLeft" state="frozenSplit"/>
+      <selection pane="bottomLeft" activeCell="G93" sqref="G93"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -520,36 +628,40 @@
   </cols>
   <sheetData>
     <row r="1" spans="5:5" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="8" spans="5:5" x14ac:dyDescent="0.2">
-      <c r="E8" t="s">
+    <row r="5" spans="5:5" x14ac:dyDescent="0.2">
+      <c r="E5" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6" spans="5:5" x14ac:dyDescent="0.2">
+      <c r="E6" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="10" spans="5:5" x14ac:dyDescent="0.2">
+      <c r="E10" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="5:5" x14ac:dyDescent="0.2">
-      <c r="E9" t="s">
+    <row r="11" spans="5:5" x14ac:dyDescent="0.2">
+      <c r="E11" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="5:5" x14ac:dyDescent="0.2">
-      <c r="E12" t="s">
+    <row r="14" spans="5:5" x14ac:dyDescent="0.2">
+      <c r="E14" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="13" spans="5:5" x14ac:dyDescent="0.2">
-      <c r="E13" t="s">
+    <row r="15" spans="5:5" x14ac:dyDescent="0.2">
+      <c r="E15" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="14" spans="5:5" x14ac:dyDescent="0.2">
-      <c r="E14" s="3" t="s">
+    <row r="16" spans="5:5" x14ac:dyDescent="0.2">
+      <c r="E16" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="15" spans="5:5" x14ac:dyDescent="0.2">
-      <c r="E15" s="3"/>
-    </row>
-    <row r="16" spans="5:5" x14ac:dyDescent="0.2">
-      <c r="E16" s="3"/>
     </row>
     <row r="17" spans="5:5" x14ac:dyDescent="0.2">
       <c r="E17" s="3"/>
@@ -558,20 +670,20 @@
       <c r="E18" s="3"/>
     </row>
     <row r="19" spans="5:5" x14ac:dyDescent="0.2">
-      <c r="E19" t="s">
+      <c r="E19" s="3"/>
+    </row>
+    <row r="20" spans="5:5" x14ac:dyDescent="0.2">
+      <c r="E20" s="3"/>
+    </row>
+    <row r="21" spans="5:5" x14ac:dyDescent="0.2">
+      <c r="E21" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="22" spans="5:5" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="E22" s="1" t="s">
+    <row r="24" spans="5:5" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="E24" s="1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="23" spans="5:5" x14ac:dyDescent="0.2">
-      <c r="E23" s="3"/>
-    </row>
-    <row r="24" spans="5:5" x14ac:dyDescent="0.2">
-      <c r="E24" s="3"/>
     </row>
     <row r="25" spans="5:5" x14ac:dyDescent="0.2">
       <c r="E25" s="3"/>
@@ -585,24 +697,32 @@
     <row r="28" spans="5:5" x14ac:dyDescent="0.2">
       <c r="E28" s="3"/>
     </row>
-    <row r="31" spans="5:5" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="E31" s="1" t="s">
+    <row r="29" spans="5:5" x14ac:dyDescent="0.2">
+      <c r="E29" s="3"/>
+    </row>
+    <row r="30" spans="5:5" x14ac:dyDescent="0.2">
+      <c r="E30" s="3"/>
+    </row>
+    <row r="33" spans="5:5" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="E33" s="1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="32" spans="5:5" x14ac:dyDescent="0.2">
-      <c r="E32" s="2" t="s">
+    <row r="34" spans="5:5" x14ac:dyDescent="0.2">
+      <c r="E34" s="2" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="33" spans="5:5" x14ac:dyDescent="0.2">
-      <c r="E33" t="s">
+    <row r="35" spans="5:5" x14ac:dyDescent="0.2">
+      <c r="E35" t="s">
         <v>7</v>
       </c>
     </row>
+    <row r="87" s="4" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="88" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="E32" r:id="rId1" xr:uid="{9D144B97-C010-884B-BB5E-DC75C023483E}"/>
+    <hyperlink ref="E34" r:id="rId1" xr:uid="{9D144B97-C010-884B-BB5E-DC75C023483E}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId2"/>

--- a/FileGunBasin/9 August-04 StormBasin/SDDX - Phone Number Providers - nimbata etc.xlsx
+++ b/FileGunBasin/9 August-04 StormBasin/SDDX - Phone Number Providers - nimbata etc.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kylecampbell/Documents/repos/localrepo-snefuru4/FileGunBasin/9 August-04 StormBasin/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EEAD9C5C-2AB6-6040-883D-0B1E112084D1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{18349F44-F290-6D42-8E18-21CE630BFA48}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="38400" windowHeight="19300" xr2:uid="{EFD5C193-6F6B-914F-8CBC-85A8AB3A09F8}"/>
   </bookViews>
@@ -617,8 +617,8 @@
   <dimension ref="E1:E88"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A85" activePane="bottomLeft" state="frozenSplit"/>
-      <selection pane="bottomLeft" activeCell="G93" sqref="G93"/>
+      <pane ySplit="1" topLeftCell="A88" activePane="bottomLeft" state="frozenSplit"/>
+      <selection pane="bottomLeft" activeCell="I98" sqref="I98"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>

--- a/FileGunBasin/9 August-04 StormBasin/SDDX - Phone Number Providers - nimbata etc.xlsx
+++ b/FileGunBasin/9 August-04 StormBasin/SDDX - Phone Number Providers - nimbata etc.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kylecampbell/Documents/repos/localrepo-snefuru4/FileGunBasin/9 August-04 StormBasin/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{18349F44-F290-6D42-8E18-21CE630BFA48}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{94AB08DD-EEB5-8644-BCC8-8EEA8C3F5BCD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="38400" windowHeight="19300" xr2:uid="{EFD5C193-6F6B-914F-8CBC-85A8AB3A09F8}"/>
   </bookViews>
@@ -618,7 +618,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A88" activePane="bottomLeft" state="frozenSplit"/>
-      <selection pane="bottomLeft" activeCell="I98" sqref="I98"/>
+      <selection pane="bottomLeft" activeCell="H103" sqref="H103"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>

--- a/FileGunBasin/9 August-04 StormBasin/SDDX - Phone Number Providers - nimbata etc.xlsx
+++ b/FileGunBasin/9 August-04 StormBasin/SDDX - Phone Number Providers - nimbata etc.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kylecampbell/Documents/repos/localrepo-snefuru4/FileGunBasin/9 August-04 StormBasin/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{94AB08DD-EEB5-8644-BCC8-8EEA8C3F5BCD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E230C879-5C7B-A94D-BDAB-4657F63E1A7D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="38400" windowHeight="19300" xr2:uid="{EFD5C193-6F6B-914F-8CBC-85A8AB3A09F8}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="11">
   <si>
     <t>nimbata</t>
   </si>
@@ -66,6 +66,9 @@
   </si>
   <si>
     <t>50 usd per month for 5 numbers - 3 usd per month for additional numbers</t>
+  </si>
+  <si>
+    <t>50 cents</t>
   </si>
 </sst>
 </file>
@@ -103,7 +106,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -122,6 +125,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -136,12 +145,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -166,13 +176,13 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>423333</xdr:colOff>
-      <xdr:row>37</xdr:row>
+      <xdr:row>42</xdr:row>
       <xdr:rowOff>169333</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
       <xdr:colOff>320750</xdr:colOff>
-      <xdr:row>57</xdr:row>
+      <xdr:row>62</xdr:row>
       <xdr:rowOff>17007</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -210,13 +220,13 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>63</xdr:row>
+      <xdr:row>68</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
       <xdr:colOff>50800</xdr:colOff>
-      <xdr:row>81</xdr:row>
+      <xdr:row>86</xdr:row>
       <xdr:rowOff>7793</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -254,13 +264,13 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>406400</xdr:colOff>
-      <xdr:row>90</xdr:row>
+      <xdr:row>95</xdr:row>
       <xdr:rowOff>126998</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
       <xdr:colOff>246111</xdr:colOff>
-      <xdr:row>108</xdr:row>
+      <xdr:row>113</xdr:row>
       <xdr:rowOff>148165</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -614,11 +624,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F064B5AF-B61E-1647-A11A-79A718E9F358}">
-  <dimension ref="E1:E88"/>
+  <dimension ref="E1:E93"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A88" activePane="bottomLeft" state="frozenSplit"/>
-      <selection pane="bottomLeft" activeCell="H103" sqref="H103"/>
+      <pane ySplit="1" topLeftCell="A23" activePane="bottomLeft" state="frozenSplit"/>
+      <selection pane="bottomLeft" activeCell="E34" sqref="E34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -680,49 +690,51 @@
         <v>5</v>
       </c>
     </row>
-    <row r="24" spans="5:5" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="E24" s="1" t="s">
+    <row r="29" spans="5:5" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="E29" s="1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="25" spans="5:5" x14ac:dyDescent="0.2">
-      <c r="E25" s="3"/>
-    </row>
-    <row r="26" spans="5:5" x14ac:dyDescent="0.2">
-      <c r="E26" s="3"/>
-    </row>
-    <row r="27" spans="5:5" x14ac:dyDescent="0.2">
-      <c r="E27" s="3"/>
-    </row>
-    <row r="28" spans="5:5" x14ac:dyDescent="0.2">
-      <c r="E28" s="3"/>
-    </row>
-    <row r="29" spans="5:5" x14ac:dyDescent="0.2">
-      <c r="E29" s="3"/>
     </row>
     <row r="30" spans="5:5" x14ac:dyDescent="0.2">
       <c r="E30" s="3"/>
     </row>
-    <row r="33" spans="5:5" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="E33" s="1" t="s">
+    <row r="31" spans="5:5" x14ac:dyDescent="0.2">
+      <c r="E31" s="5" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="32" spans="5:5" x14ac:dyDescent="0.2">
+      <c r="E32" s="3"/>
+    </row>
+    <row r="33" spans="5:5" x14ac:dyDescent="0.2">
+      <c r="E33" s="3"/>
+    </row>
+    <row r="34" spans="5:5" x14ac:dyDescent="0.2">
+      <c r="E34" s="3"/>
+    </row>
+    <row r="35" spans="5:5" x14ac:dyDescent="0.2">
+      <c r="E35" s="3"/>
+    </row>
+    <row r="38" spans="5:5" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="E38" s="1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="34" spans="5:5" x14ac:dyDescent="0.2">
-      <c r="E34" s="2" t="s">
+    <row r="39" spans="5:5" x14ac:dyDescent="0.2">
+      <c r="E39" s="2" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="35" spans="5:5" x14ac:dyDescent="0.2">
-      <c r="E35" t="s">
+    <row r="40" spans="5:5" x14ac:dyDescent="0.2">
+      <c r="E40" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="87" s="4" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="88" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="92" s="4" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="93" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="E34" r:id="rId1" xr:uid="{9D144B97-C010-884B-BB5E-DC75C023483E}"/>
+    <hyperlink ref="E39" r:id="rId1" xr:uid="{9D144B97-C010-884B-BB5E-DC75C023483E}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId2"/>
